--- a/Demi/code4.0/Project-UI/WoniuBoss4/testdata/woniuboss_test_UI.xlsx
+++ b/Demi/code4.0/Project-UI/WoniuBoss4/testdata/woniuboss_test_UI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="813" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="813"/>
   </bookViews>
   <sheets>
     <sheet name="resource_train" sheetId="1" r:id="rId1"/>
@@ -500,7 +500,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -552,6 +552,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -862,8 +865,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1043,16 +1046,16 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="14" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1144,7 +1147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
